--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_999.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_999.xlsx
@@ -315,7 +315,7 @@
       <patternFill patternType="darkGray"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -323,23 +323,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F72"/>
+  <dimension ref="A1:G72"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -347,10 +348,10 @@
   <cols>
     <col min="1" max="1" width="19.171875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="32.41796875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.56640625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="19.5" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="22.6875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="27.32421875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="19.49609375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="22.68359375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1796,273 +1797,4 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100335471EDD44E874DAB7180C0493F4ECE" ma:contentTypeVersion="15" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="85959bbc5d8178fb694bc2caf2439f0b">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1632c0f2-5623-49d0-b15e-384a6acdbfc6" xmlns:ns3="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f816d1a8925a644684fbd742cefb2ae2" ns2:_="" ns3:_="">
-    <xsd:import namespace="1632c0f2-5623-49d0-b15e-384a6acdbfc6"/>
-    <xsd:import namespace="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="1632c0f2-5623-49d0-b15e-384a6acdbfc6" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="11" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="12" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="13" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="14" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="20" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Tag immagine" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="febfd348-e945-4c65-a9c0-c21aadb6feb0" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="22" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="17" nillable="true" ma:displayName="Condiviso con" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="18" nillable="true" ma:displayName="Condiviso con dettagli" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TaxCatchAll" ma:index="21" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{63e8363e-42d2-43ab-ac90-61e1d0a52236}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo di contenuto"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titolo"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1632c0f2-5623-49d0-b15e-384a6acdbfc6">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C4E4FFEF-0DFB-408B-A63F-28526CBF777F}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C927731-10E3-4419-BEEC-78B032938FAB}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5635A89A-6781-4F8A-A75D-A4E23937684D}"/>
 </file>
--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_999.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="93">
   <si>
     <t>Sezione</t>
   </si>
@@ -72,6 +72,15 @@
   </si>
   <si>
     <t>minuto</t>
+  </si>
+  <si>
+    <t>Dati Generali</t>
+  </si>
+  <si>
+    <t>Data decorrenza</t>
+  </si>
+  <si>
+    <t>dataDecorrenza</t>
   </si>
   <si>
     <t>Intestatario</t>
@@ -340,7 +349,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G72"/>
+  <dimension ref="A1:G73"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -502,13 +511,13 @@
         <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>9</v>
@@ -516,19 +525,19 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>9</v>
@@ -536,19 +545,19 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>9</v>
@@ -556,19 +565,19 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>9</v>
@@ -576,19 +585,19 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>9</v>
@@ -596,19 +605,19 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>9</v>
@@ -616,19 +625,19 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>9</v>
@@ -636,19 +645,19 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>9</v>
@@ -656,19 +665,19 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>9</v>
@@ -676,19 +685,19 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>9</v>
@@ -696,19 +705,19 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>9</v>
@@ -716,19 +725,19 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>9</v>
@@ -736,19 +745,19 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>9</v>
@@ -756,19 +765,19 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>9</v>
@@ -776,19 +785,19 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>9</v>
@@ -796,19 +805,19 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>9</v>
@@ -816,19 +825,19 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>9</v>
@@ -836,19 +845,19 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>9</v>
@@ -856,19 +865,19 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>9</v>
@@ -876,19 +885,19 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>9</v>
@@ -896,19 +905,19 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>9</v>
@@ -916,19 +925,19 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>9</v>
@@ -936,19 +945,19 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>9</v>
@@ -956,19 +965,19 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>9</v>
@@ -976,19 +985,19 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>9</v>
@@ -996,19 +1005,19 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>9</v>
@@ -1016,19 +1025,19 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>9</v>
@@ -1036,19 +1045,19 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>9</v>
@@ -1056,19 +1065,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>9</v>
@@ -1076,19 +1085,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>9</v>
@@ -1096,19 +1105,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>9</v>
@@ -1116,19 +1125,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>9</v>
@@ -1136,19 +1145,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>9</v>
@@ -1156,19 +1165,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>9</v>
@@ -1176,19 +1185,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>9</v>
@@ -1196,19 +1205,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>9</v>
@@ -1216,19 +1225,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>9</v>
@@ -1236,19 +1245,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>9</v>
@@ -1256,19 +1265,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>9</v>
@@ -1276,19 +1285,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>9</v>
@@ -1296,19 +1305,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>9</v>
@@ -1316,19 +1325,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>9</v>
@@ -1336,19 +1345,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>24</v>
+        <v>88</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>9</v>
@@ -1356,19 +1365,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>9</v>
@@ -1376,19 +1385,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>9</v>
@@ -1396,19 +1405,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>9</v>
@@ -1416,19 +1425,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>9</v>
@@ -1436,19 +1445,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>9</v>
@@ -1456,19 +1465,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>9</v>
@@ -1476,19 +1485,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>9</v>
@@ -1496,19 +1505,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>9</v>
@@ -1516,19 +1525,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>9</v>
@@ -1536,19 +1545,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>9</v>
@@ -1556,19 +1565,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>9</v>
@@ -1576,19 +1585,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>9</v>
@@ -1596,19 +1605,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>9</v>
@@ -1616,19 +1625,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>9</v>
@@ -1636,19 +1645,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>9</v>
@@ -1656,19 +1665,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>9</v>
@@ -1676,19 +1685,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>9</v>
@@ -1696,19 +1705,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>9</v>
@@ -1716,19 +1725,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>9</v>
@@ -1736,19 +1745,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>9</v>
@@ -1756,19 +1765,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>9</v>
@@ -1776,21 +1785,41 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C72" s="2" t="s">
+      <c r="F72" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C73" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D72" s="2" t="s">
+      <c r="D73" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E72" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F72" s="2" t="s">
+      <c r="E73" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F73" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_999.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="101">
   <si>
     <t>Sezione</t>
   </si>
@@ -74,22 +74,46 @@
     <t>minuto</t>
   </si>
   <si>
-    <t>Dati Generali</t>
+    <t>Dati generali</t>
   </si>
   <si>
     <t>Data decorrenza</t>
   </si>
   <si>
+    <t>NO</t>
+  </si>
+  <si>
     <t>dataDecorrenza</t>
   </si>
   <si>
+    <t>Ora decorrenza</t>
+  </si>
+  <si>
+    <t>oraDecorrenza</t>
+  </si>
+  <si>
+    <t>Minuto decorrenza</t>
+  </si>
+  <si>
+    <t>minutoDecorrenza</t>
+  </si>
+  <si>
+    <t>Motivo recupero</t>
+  </si>
+  <si>
+    <t>motivoRecupero</t>
+  </si>
+  <si>
+    <t>Descrizione recupero</t>
+  </si>
+  <si>
+    <t>descrizioneMotivoRecupero</t>
+  </si>
+  <si>
     <t>Intestatario</t>
   </si>
   <si>
     <t>Cognome</t>
-  </si>
-  <si>
-    <t>NO</t>
   </si>
   <si>
     <t>evento.intestatari[0]</t>
@@ -349,7 +373,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G73"/>
+  <dimension ref="A1:G77"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -359,7 +383,7 @@
     <col min="2" max="2" width="32.41796875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="19.49609375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="22.68359375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="26.12109375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -511,13 +535,13 @@
         <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>9</v>
@@ -525,19 +549,19 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>9</v>
@@ -545,19 +569,19 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>9</v>
@@ -565,19 +589,19 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>9</v>
@@ -585,19 +609,19 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>9</v>
@@ -605,16 +629,16 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>35</v>
@@ -625,7 +649,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>36</v>
@@ -634,7 +658,7 @@
         <v>8</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>37</v>
@@ -645,16 +669,16 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>39</v>
@@ -665,16 +689,16 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>41</v>
@@ -685,16 +709,16 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>43</v>
@@ -705,16 +729,16 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>45</v>
@@ -725,16 +749,16 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>47</v>
@@ -745,16 +769,16 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>49</v>
@@ -765,16 +789,16 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>51</v>
@@ -785,16 +809,16 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>53</v>
@@ -805,16 +829,16 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>55</v>
@@ -825,16 +849,16 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>57</v>
@@ -845,16 +869,16 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>59</v>
@@ -865,16 +889,16 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>61</v>
@@ -885,16 +909,16 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>63</v>
@@ -905,16 +929,16 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>65</v>
@@ -925,19 +949,19 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="C29" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D29" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>9</v>
@@ -945,19 +969,19 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>9</v>
@@ -965,19 +989,19 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>9</v>
@@ -985,19 +1009,19 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="E32" s="2" t="s">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>9</v>
@@ -1005,19 +1029,19 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>9</v>
@@ -1025,19 +1049,19 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>9</v>
@@ -1045,16 +1069,16 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>41</v>
@@ -1065,16 +1089,16 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>43</v>
@@ -1085,16 +1109,16 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>45</v>
@@ -1105,16 +1129,16 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>47</v>
@@ -1125,16 +1149,16 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>49</v>
@@ -1145,16 +1169,16 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>51</v>
@@ -1165,16 +1189,16 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>53</v>
@@ -1185,16 +1209,16 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>55</v>
@@ -1205,16 +1229,16 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>57</v>
@@ -1225,16 +1249,16 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>59</v>
@@ -1245,16 +1269,16 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>61</v>
@@ -1265,16 +1289,16 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>63</v>
@@ -1285,16 +1309,16 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>65</v>
@@ -1305,19 +1329,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D48" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>9</v>
@@ -1325,19 +1349,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>9</v>
@@ -1345,19 +1369,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>9</v>
@@ -1365,19 +1389,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>24</v>
+        <v>90</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>9</v>
@@ -1385,19 +1409,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>9</v>
@@ -1405,19 +1429,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>32</v>
+        <v>93</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>33</v>
+        <v>94</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>9</v>
@@ -1425,19 +1449,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>34</v>
+        <v>95</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>35</v>
+        <v>96</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>9</v>
@@ -1445,19 +1469,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>9</v>
@@ -1465,19 +1489,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>9</v>
@@ -1485,16 +1509,16 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>41</v>
@@ -1505,16 +1529,16 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>43</v>
@@ -1525,16 +1549,16 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>45</v>
@@ -1545,16 +1569,16 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>47</v>
@@ -1565,16 +1589,16 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>49</v>
@@ -1585,16 +1609,16 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>51</v>
@@ -1605,16 +1629,16 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>53</v>
@@ -1625,16 +1649,16 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>55</v>
@@ -1645,16 +1669,16 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>57</v>
@@ -1665,16 +1689,16 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>59</v>
@@ -1685,16 +1709,16 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>61</v>
@@ -1705,16 +1729,16 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>63</v>
@@ -1725,16 +1749,16 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>65</v>
@@ -1745,19 +1769,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>9</v>
@@ -1765,19 +1789,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>9</v>
@@ -1785,19 +1809,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="C72" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>9</v>
@@ -1805,21 +1829,101 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C73" s="2" t="s">
+      <c r="C74" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C77" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D73" s="2" t="s">
+      <c r="D77" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E73" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F73" s="2" t="s">
+      <c r="E77" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F77" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_999.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="128">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
     <t>Formula</t>
   </si>
   <si>
@@ -56,6 +59,9 @@
     <t>numeroatto</t>
   </si>
   <si>
+    <t>obbligatoria</t>
+  </si>
+  <si>
     <t>Data formazione</t>
   </si>
   <si>
@@ -242,6 +248,9 @@
     <t>evento.madre</t>
   </si>
   <si>
+    <t>opzionale</t>
+  </si>
+  <si>
     <t>Stato di nascita</t>
   </si>
   <si>
@@ -299,7 +308,7 @@
     <t>flagComparente</t>
   </si>
   <si>
-    <t>flag firmatario</t>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>flagFirmatario</t>
@@ -309,6 +318,78 @@
   </si>
   <si>
     <t>evento.padre</t>
+  </si>
+  <si>
+    <t>Atto collegato</t>
+  </si>
+  <si>
+    <t>Id atto</t>
+  </si>
+  <si>
+    <t>evento.eventoCollegato</t>
+  </si>
+  <si>
+    <t>idAnsc</t>
+  </si>
+  <si>
+    <t>Provincia registrazione</t>
+  </si>
+  <si>
+    <t>idProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>Provincia registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione</t>
+  </si>
+  <si>
+    <t>idComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Tipo evento</t>
+  </si>
+  <si>
+    <t>idtipocontenuto</t>
+  </si>
+  <si>
+    <t>Numero Comunale</t>
+  </si>
+  <si>
+    <t>Anno atto</t>
+  </si>
+  <si>
+    <t>annoAtto</t>
+  </si>
+  <si>
+    <t>Data atto</t>
+  </si>
+  <si>
+    <t>Tipo registro</t>
+  </si>
+  <si>
+    <t>tipologia</t>
+  </si>
+  <si>
+    <t>Parte</t>
+  </si>
+  <si>
+    <t>parte</t>
+  </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t>serie</t>
   </si>
   <si>
     <t>Composizione libera</t>
@@ -373,18 +454,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G77"/>
+  <dimension ref="A1:H89"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="19.171875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="32.41796875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="33.30859375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="19.49609375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="22.48828125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="26.12109375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="24.609375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -406,25 +488,31 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -446,1485 +534,1986 @@
       <c r="F3" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G3" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="E14" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="E38" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D51" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E51" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="F51" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E75" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B75" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="F75" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_999.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_999.xlsx
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Formula</t>
@@ -466,7 +466,7 @@
     <col min="4" max="4" width="22.48828125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="26.12109375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="24.609375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="28.44921875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_999.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="129">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,19 +32,22 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>999.1.3</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>999.1.3</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -535,1985 +538,1985 @@
         <v>5</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E76" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B76" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_999.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="113">
   <si>
     <t>Sezione</t>
   </si>
@@ -119,208 +119,160 @@
     <t>descrizioneMotivoRecupero</t>
   </si>
   <si>
+    <t>Madre</t>
+  </si>
+  <si>
+    <t>Cognome</t>
+  </si>
+  <si>
+    <t>evento.madre</t>
+  </si>
+  <si>
+    <t>cognome</t>
+  </si>
+  <si>
+    <t>opzionale</t>
+  </si>
+  <si>
+    <t>Nome</t>
+  </si>
+  <si>
+    <t>nome</t>
+  </si>
+  <si>
+    <t>Sesso</t>
+  </si>
+  <si>
+    <t>sesso</t>
+  </si>
+  <si>
+    <t>Data nascita</t>
+  </si>
+  <si>
+    <t>dataNascita</t>
+  </si>
+  <si>
+    <t>Stato di nascita</t>
+  </si>
+  <si>
+    <t>idStatoNascita</t>
+  </si>
+  <si>
+    <t>Stato di nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeStatoNascita</t>
+  </si>
+  <si>
+    <t>Provincia di nascita</t>
+  </si>
+  <si>
+    <t>idProvinciaNascita</t>
+  </si>
+  <si>
+    <t>Provincia di nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaNascita</t>
+  </si>
+  <si>
+    <t>Comune di nascita</t>
+  </si>
+  <si>
+    <t>idComuneNascita</t>
+  </si>
+  <si>
+    <t>Comune di nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneNascita</t>
+  </si>
+  <si>
+    <t>Nazionalita</t>
+  </si>
+  <si>
+    <t>idNazionalita</t>
+  </si>
+  <si>
+    <t>Nazionalita - Descrizione</t>
+  </si>
+  <si>
+    <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Stato di residenza</t>
+  </si>
+  <si>
+    <t>idStatoResidenza</t>
+  </si>
+  <si>
+    <t>Stato di residenza - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeStatoResidenza</t>
+  </si>
+  <si>
+    <t>Provincia di residenza</t>
+  </si>
+  <si>
+    <t>idProvinciaResidenza</t>
+  </si>
+  <si>
+    <t>Provincia di residenza - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaResidenza</t>
+  </si>
+  <si>
+    <t>Comune di residenza</t>
+  </si>
+  <si>
+    <t>idComuneResidenza</t>
+  </si>
+  <si>
+    <t>Comune di residenza - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneResidenza</t>
+  </si>
+  <si>
+    <t>Indirizzo di residenza</t>
+  </si>
+  <si>
+    <t>indirizzoResidenza</t>
+  </si>
+  <si>
+    <t>flag dichiarante</t>
+  </si>
+  <si>
+    <t>flagDichiarante</t>
+  </si>
+  <si>
+    <t>flag comparente</t>
+  </si>
+  <si>
+    <t>flagComparente</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
+  </si>
+  <si>
+    <t>flagFirmatario</t>
+  </si>
+  <si>
+    <t>Padre</t>
+  </si>
+  <si>
+    <t>evento.padre</t>
+  </si>
+  <si>
     <t>Intestatario</t>
   </si>
   <si>
-    <t>Cognome</t>
-  </si>
-  <si>
     <t>evento.intestatari[0]</t>
   </si>
   <si>
-    <t>cognome</t>
-  </si>
-  <si>
-    <t>Nome</t>
-  </si>
-  <si>
-    <t>nome</t>
-  </si>
-  <si>
-    <t>Codice Fiscale</t>
-  </si>
-  <si>
-    <t>codiceFiscale</t>
-  </si>
-  <si>
-    <t>Sesso</t>
-  </si>
-  <si>
-    <t>sesso</t>
-  </si>
-  <si>
-    <t>Data nascita</t>
-  </si>
-  <si>
-    <t>dataNascita</t>
-  </si>
-  <si>
-    <t>Stato Nascita</t>
-  </si>
-  <si>
-    <t>idStatoNascita</t>
-  </si>
-  <si>
-    <t>Stato Nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeStatoNascita</t>
-  </si>
-  <si>
-    <t>Provincia Nascita</t>
-  </si>
-  <si>
-    <t>idProvinciaNascita</t>
-  </si>
-  <si>
-    <t>Provincia Nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>siglaProvinciaNascita</t>
-  </si>
-  <si>
-    <t>Comune Nascita</t>
-  </si>
-  <si>
-    <t>idComuneNascita</t>
-  </si>
-  <si>
-    <t>Comune Nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeComuneNascita</t>
-  </si>
-  <si>
-    <t>Nazionalità</t>
-  </si>
-  <si>
-    <t>idNazionalita</t>
-  </si>
-  <si>
-    <t>Nazionalità   - Descrizione</t>
-  </si>
-  <si>
-    <t>nazionalita</t>
-  </si>
-  <si>
-    <t>Stato Residenza</t>
-  </si>
-  <si>
-    <t>idStatoResidenza</t>
-  </si>
-  <si>
-    <t>Stato Residenza - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeStatoResidenza</t>
-  </si>
-  <si>
-    <t>Provincia Residenza</t>
-  </si>
-  <si>
-    <t>idProvinciaResidenza</t>
-  </si>
-  <si>
-    <t>Provincia Residenza - Descrizione</t>
-  </si>
-  <si>
-    <t>siglaProvinciaResidenza</t>
-  </si>
-  <si>
-    <t>Comune Residenza</t>
-  </si>
-  <si>
-    <t>idComuneResidenza</t>
-  </si>
-  <si>
-    <t>Comune Residenza - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeComuneResidenza</t>
-  </si>
-  <si>
-    <t>Indirizzo Residenza</t>
-  </si>
-  <si>
-    <t>indirizzoResidenza</t>
-  </si>
-  <si>
-    <t>Madre</t>
-  </si>
-  <si>
-    <t>evento.madre</t>
-  </si>
-  <si>
-    <t>opzionale</t>
-  </si>
-  <si>
-    <t>Stato di nascita</t>
-  </si>
-  <si>
-    <t>Stato di nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>Provincia di nascita</t>
-  </si>
-  <si>
-    <t>Provincia di nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>Comune di nascita</t>
-  </si>
-  <si>
-    <t>Comune di nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>Nazionalita</t>
-  </si>
-  <si>
-    <t>Nazionalita - Descrizione</t>
-  </si>
-  <si>
-    <t>Stato di residenza</t>
-  </si>
-  <si>
-    <t>Stato di residenza - Descrizione</t>
-  </si>
-  <si>
-    <t>Provincia di residenza</t>
-  </si>
-  <si>
-    <t>Provincia di residenza - Descrizione</t>
-  </si>
-  <si>
-    <t>Comune di residenza</t>
-  </si>
-  <si>
-    <t>Comune di residenza - Descrizione</t>
-  </si>
-  <si>
-    <t>Indirizzo di residenza</t>
-  </si>
-  <si>
-    <t>flag dichiarante</t>
-  </si>
-  <si>
-    <t>flagDichiarante</t>
-  </si>
-  <si>
-    <t>flag comparente</t>
-  </si>
-  <si>
-    <t>flagComparente</t>
-  </si>
-  <si>
-    <t>Firmatario</t>
-  </si>
-  <si>
-    <t>flagFirmatario</t>
-  </si>
-  <si>
-    <t>Padre</t>
-  </si>
-  <si>
-    <t>evento.padre</t>
+    <t>flag firmatario</t>
   </si>
   <si>
     <t>Atto collegato</t>
@@ -457,7 +409,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H89"/>
+  <dimension ref="A1:H91"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -768,7 +720,7 @@
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14">
@@ -776,7 +728,7 @@
         <v>35</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
@@ -785,13 +737,13 @@
         <v>37</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15">
@@ -799,22 +751,22 @@
         <v>35</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16">
@@ -822,7 +774,7 @@
         <v>35</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>9</v>
@@ -831,13 +783,13 @@
         <v>37</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17">
@@ -845,7 +797,7 @@
         <v>35</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>9</v>
@@ -854,13 +806,13 @@
         <v>37</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18">
@@ -868,7 +820,7 @@
         <v>35</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>9</v>
@@ -877,13 +829,13 @@
         <v>37</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19">
@@ -891,22 +843,22 @@
         <v>35</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20">
@@ -914,7 +866,7 @@
         <v>35</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>25</v>
@@ -923,13 +875,13 @@
         <v>37</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21">
@@ -937,7 +889,7 @@
         <v>35</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>25</v>
@@ -946,13 +898,13 @@
         <v>37</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22">
@@ -960,7 +912,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>25</v>
@@ -969,13 +921,13 @@
         <v>37</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23">
@@ -983,22 +935,22 @@
         <v>35</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24">
@@ -1006,7 +958,7 @@
         <v>35</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>9</v>
@@ -1015,13 +967,13 @@
         <v>37</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25">
@@ -1029,7 +981,7 @@
         <v>35</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>9</v>
@@ -1038,13 +990,13 @@
         <v>37</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26">
@@ -1052,7 +1004,7 @@
         <v>35</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>9</v>
@@ -1061,13 +1013,13 @@
         <v>37</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27">
@@ -1075,22 +1027,22 @@
         <v>35</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28">
@@ -1098,7 +1050,7 @@
         <v>35</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>25</v>
@@ -1107,13 +1059,13 @@
         <v>37</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29">
@@ -1121,7 +1073,7 @@
         <v>35</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>25</v>
@@ -1130,13 +1082,13 @@
         <v>37</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30">
@@ -1144,7 +1096,7 @@
         <v>35</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>25</v>
@@ -1153,13 +1105,13 @@
         <v>37</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31">
@@ -1167,7 +1119,7 @@
         <v>35</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>25</v>
@@ -1176,13 +1128,13 @@
         <v>37</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32">
@@ -1190,1332 +1142,1378 @@
         <v>35</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="E40" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>79</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>79</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>79</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>79</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>79</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>79</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>79</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D64" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C64" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="E64" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>79</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>79</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>79</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>79</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>79</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>79</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>79</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>79</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>79</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>79</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>79</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>79</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>79</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>79</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>79</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E86" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B86" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>124</v>
+        <v>18</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>127</v>
+        <v>87</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D89" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E89" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G89" s="2" t="s">
+      <c r="E91" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G91" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_999.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_999.xlsx
@@ -266,13 +266,13 @@
     <t>evento.padre</t>
   </si>
   <si>
-    <t>Intestatario</t>
+    <t>Figlio</t>
   </si>
   <si>
     <t>evento.intestatari[0]</t>
   </si>
   <si>
-    <t>flag firmatario</t>
+    <t>evento.trascrizioneNascita.tipoRichiedente,!=,3</t>
   </si>
   <si>
     <t>Atto collegato</t>
@@ -421,7 +421,7 @@
     <col min="4" max="4" width="22.48828125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="26.12109375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="28.44921875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="43.5546875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1732,7 +1732,7 @@
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>16</v>
+        <v>86</v>
       </c>
     </row>
     <row r="58">
@@ -1755,7 +1755,7 @@
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>16</v>
+        <v>86</v>
       </c>
     </row>
     <row r="59">
@@ -1778,7 +1778,7 @@
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>16</v>
+        <v>86</v>
       </c>
     </row>
     <row r="60">
@@ -1801,7 +1801,7 @@
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>16</v>
+        <v>86</v>
       </c>
     </row>
     <row r="61">
@@ -1824,7 +1824,7 @@
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>16</v>
+        <v>86</v>
       </c>
     </row>
     <row r="62">
@@ -1847,7 +1847,7 @@
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>16</v>
+        <v>86</v>
       </c>
     </row>
     <row r="63">
@@ -1870,7 +1870,7 @@
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>16</v>
+        <v>86</v>
       </c>
     </row>
     <row r="64">
@@ -1893,7 +1893,7 @@
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>16</v>
+        <v>86</v>
       </c>
     </row>
     <row r="65">
@@ -1916,7 +1916,7 @@
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>16</v>
+        <v>86</v>
       </c>
     </row>
     <row r="66">
@@ -1939,7 +1939,7 @@
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>16</v>
+        <v>86</v>
       </c>
     </row>
     <row r="67">
@@ -1962,7 +1962,7 @@
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>16</v>
+        <v>86</v>
       </c>
     </row>
     <row r="68">
@@ -1985,7 +1985,7 @@
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>16</v>
+        <v>86</v>
       </c>
     </row>
     <row r="69">
@@ -2008,7 +2008,7 @@
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>16</v>
+        <v>86</v>
       </c>
     </row>
     <row r="70">
@@ -2031,7 +2031,7 @@
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>16</v>
+        <v>86</v>
       </c>
     </row>
     <row r="71">
@@ -2054,7 +2054,7 @@
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>16</v>
+        <v>86</v>
       </c>
     </row>
     <row r="72">
@@ -2077,7 +2077,7 @@
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>16</v>
+        <v>86</v>
       </c>
     </row>
     <row r="73">
@@ -2100,7 +2100,7 @@
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>16</v>
+        <v>86</v>
       </c>
     </row>
     <row r="74">
@@ -2123,7 +2123,7 @@
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>16</v>
+        <v>86</v>
       </c>
     </row>
     <row r="75">
@@ -2146,7 +2146,7 @@
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>16</v>
+        <v>86</v>
       </c>
     </row>
     <row r="76">
@@ -2169,7 +2169,7 @@
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>16</v>
+        <v>86</v>
       </c>
     </row>
     <row r="77">
@@ -2192,7 +2192,7 @@
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>16</v>
+        <v>86</v>
       </c>
     </row>
     <row r="78">
@@ -2200,7 +2200,7 @@
         <v>84</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>25</v>
@@ -2215,7 +2215,7 @@
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>16</v>
+        <v>86</v>
       </c>
     </row>
     <row r="79">

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_999.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_999.xlsx
@@ -266,7 +266,7 @@
     <t>evento.padre</t>
   </si>
   <si>
-    <t>Figlio</t>
+    <t>Intestatario</t>
   </si>
   <si>
     <t>evento.intestatari[0]</t>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_999.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="115">
   <si>
     <t>Sezione</t>
   </si>
@@ -188,6 +188,12 @@
     <t>nomeComuneNascita</t>
   </si>
   <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
+  </si>
+  <si>
     <t>Nazionalita</t>
   </si>
   <si>
@@ -329,22 +335,22 @@
     <t>Data atto</t>
   </si>
   <si>
+    <t>Parte</t>
+  </si>
+  <si>
+    <t>parte</t>
+  </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t>serie</t>
+  </si>
+  <si>
     <t>Tipo registro</t>
   </si>
   <si>
     <t>tipologia</t>
-  </si>
-  <si>
-    <t>Parte</t>
-  </si>
-  <si>
-    <t>parte</t>
-  </si>
-  <si>
-    <t>Serie</t>
-  </si>
-  <si>
-    <t>serie</t>
   </si>
   <si>
     <t>Composizione libera</t>
@@ -409,7 +415,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H91"/>
+  <dimension ref="A1:H94"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -754,7 +760,7 @@
         <v>42</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>37</v>
@@ -777,7 +783,7 @@
         <v>44</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>37</v>
@@ -800,7 +806,7 @@
         <v>46</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>37</v>
@@ -823,7 +829,7 @@
         <v>48</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>37</v>
@@ -938,7 +944,7 @@
         <v>58</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>37</v>
@@ -961,7 +967,7 @@
         <v>60</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>37</v>
@@ -984,7 +990,7 @@
         <v>62</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>37</v>
@@ -1007,7 +1013,7 @@
         <v>64</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>37</v>
@@ -1145,7 +1151,7 @@
         <v>76</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>37</v>
@@ -1191,7 +1197,7 @@
         <v>80</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>37</v>
@@ -1208,19 +1214,19 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="C35" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D35" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
@@ -1231,19 +1237,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
@@ -1254,19 +1260,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
@@ -1277,19 +1283,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1300,19 +1306,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1323,19 +1329,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1346,19 +1352,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1369,19 +1375,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1392,19 +1398,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1415,19 +1421,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1438,19 +1444,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1461,19 +1467,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1484,19 +1490,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1507,19 +1513,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1530,19 +1536,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1553,19 +1559,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1576,19 +1582,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1599,19 +1605,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1622,19 +1628,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1645,19 +1651,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1668,19 +1674,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1691,19 +1697,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1717,7 +1723,7 @@
         <v>84</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
@@ -1726,13 +1732,13 @@
         <v>85</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
     </row>
     <row r="58">
@@ -1740,568 +1746,568 @@
         <v>84</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>85</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="E79" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G79" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G79" s="2" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D80" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B80" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="E80" s="2" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>39</v>
+        <v>88</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D81" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B81" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="E81" s="2" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>39</v>
+        <v>88</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2312,19 +2318,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2335,19 +2341,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2358,19 +2364,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2381,19 +2387,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2404,19 +2410,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2427,19 +2433,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>106</v>
+        <v>15</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2450,19 +2456,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2473,19 +2479,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>110</v>
+        <v>18</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2496,24 +2502,93 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B93" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B91" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D91" s="2" t="s">
+      <c r="C93" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E91" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G91" s="2" t="s">
+      <c r="E94" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G94" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_999.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_999.xlsx
@@ -2485,7 +2485,7 @@
         <v>106</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>91</v>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_999.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="123">
   <si>
     <t>Sezione</t>
   </si>
@@ -264,6 +264,30 @@
   </si>
   <si>
     <t>flagFirmatario</t>
+  </si>
+  <si>
+    <t>Provincia AIRE</t>
+  </si>
+  <si>
+    <t>idProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Provincia AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE</t>
+  </si>
+  <si>
+    <t>idComuneAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneAIRE</t>
   </si>
   <si>
     <t>Padre</t>
@@ -415,7 +439,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H94"/>
+  <dimension ref="A1:H106"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1237,19 +1261,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="C36" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D36" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
@@ -1260,19 +1284,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>84</v>
+        <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
@@ -1283,19 +1307,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>84</v>
+        <v>35</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1306,19 +1330,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>84</v>
+        <v>35</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1329,19 +1353,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1352,19 +1376,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1375,19 +1399,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1398,19 +1422,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1421,19 +1445,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1444,19 +1468,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1467,19 +1491,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1490,19 +1514,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1513,19 +1537,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1536,19 +1560,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1559,19 +1583,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1582,19 +1606,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1605,19 +1629,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1628,19 +1652,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1651,19 +1675,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1674,19 +1698,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1697,19 +1721,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1720,19 +1744,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1743,19 +1767,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1766,829 +1790,1105 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>88</v>
+        <v>39</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>88</v>
+        <v>39</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>88</v>
+        <v>39</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>88</v>
+        <v>39</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>88</v>
+        <v>39</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B64" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D64" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E64" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>88</v>
+        <v>39</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>88</v>
+        <v>39</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>52</v>
+        <v>90</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>88</v>
+        <v>39</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>39</v>
+        <v>96</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>39</v>
+        <v>96</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B84" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D84" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C84" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="E84" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G84" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G84" s="2" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>39</v>
+        <v>96</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>39</v>
+        <v>96</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>39</v>
+        <v>96</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>39</v>
+        <v>96</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>39</v>
+        <v>96</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>18</v>
+        <v>85</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>39</v>
+        <v>96</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>39</v>
+        <v>96</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E92" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B92" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>39</v>
+        <v>96</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D93" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E93" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E93" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>39</v>
+        <v>96</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E101" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B94" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C94" s="2" t="s">
+      <c r="F101" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D94" s="2" t="s">
+      <c r="D106" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E94" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G94" s="2" t="s">
+      <c r="E106" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_999.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="125">
   <si>
     <t>Sezione</t>
   </si>
@@ -140,6 +140,12 @@
     <t>nome</t>
   </si>
   <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
+  </si>
+  <si>
     <t>Sesso</t>
   </si>
   <si>
@@ -194,13 +200,13 @@
     <t>localitaEsteraNascita</t>
   </si>
   <si>
-    <t>Nazionalita</t>
+    <t>Nazionalità</t>
   </si>
   <si>
     <t>idNazionalita</t>
   </si>
   <si>
-    <t>Nazionalita - Descrizione</t>
+    <t>Nazionalità - Descrizione</t>
   </si>
   <si>
     <t>nazionalita</t>
@@ -439,7 +445,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H106"/>
+  <dimension ref="A1:H109"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1198,7 +1204,7 @@
         <v>78</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>37</v>
@@ -1244,7 +1250,7 @@
         <v>82</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>37</v>
@@ -1353,19 +1359,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="C40" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D40" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1376,19 +1382,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1399,19 +1405,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1422,19 +1428,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1445,19 +1451,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1468,19 +1474,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1491,19 +1497,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1514,19 +1520,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1537,19 +1543,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1560,19 +1566,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1583,19 +1589,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1606,19 +1612,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1629,19 +1635,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1652,19 +1658,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1675,19 +1681,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1698,19 +1704,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1721,19 +1727,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1744,19 +1750,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1767,19 +1773,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1790,19 +1796,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1813,19 +1819,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1836,19 +1842,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1859,19 +1865,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1882,19 +1888,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1905,19 +1911,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1928,19 +1934,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1951,19 +1957,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -1977,22 +1983,22 @@
         <v>94</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>95</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>96</v>
+        <v>39</v>
       </c>
     </row>
     <row r="68">
@@ -2000,683 +2006,683 @@
         <v>94</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>95</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>96</v>
+        <v>39</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D94" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B94" s="2" t="s">
+      <c r="E94" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G94" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G94" s="2" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D95" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B95" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="E95" s="2" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>39</v>
+        <v>98</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D96" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B96" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="E96" s="2" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>39</v>
+        <v>98</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2687,19 +2693,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2710,19 +2716,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2733,19 +2739,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>15</v>
+        <v>108</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2756,19 +2762,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2779,19 +2785,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2802,19 +2808,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>116</v>
+        <v>15</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2825,19 +2831,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2848,19 +2854,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>120</v>
+        <v>18</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2871,24 +2877,93 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B108" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B106" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C106" s="2" t="s">
+      <c r="C108" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D106" s="2" t="s">
+      <c r="D109" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E106" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F106" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G106" s="2" t="s">
+      <c r="E109" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_999.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="124">
   <si>
     <t>Sezione</t>
   </si>
@@ -306,9 +306,6 @@
   </si>
   <si>
     <t>evento.intestatari[0]</t>
-  </si>
-  <si>
-    <t>evento.trascrizioneNascita.tipoRichiedente,!=,3</t>
   </si>
   <si>
     <t>Atto collegato</t>
@@ -457,7 +454,7 @@
     <col min="4" max="4" width="22.48828125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="26.12109375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="43.5546875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="28.44921875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2044,7 +2041,7 @@
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>98</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70">
@@ -2067,7 +2064,7 @@
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>98</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71">
@@ -2090,7 +2087,7 @@
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>98</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72">
@@ -2113,7 +2110,7 @@
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>98</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73">
@@ -2136,7 +2133,7 @@
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>98</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74">
@@ -2159,7 +2156,7 @@
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>98</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75">
@@ -2182,7 +2179,7 @@
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>98</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76">
@@ -2205,7 +2202,7 @@
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>98</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77">
@@ -2228,7 +2225,7 @@
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>98</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78">
@@ -2251,7 +2248,7 @@
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>98</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79">
@@ -2274,7 +2271,7 @@
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>98</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80">
@@ -2297,7 +2294,7 @@
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>98</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81">
@@ -2320,7 +2317,7 @@
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>98</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82">
@@ -2343,7 +2340,7 @@
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>98</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83">
@@ -2366,7 +2363,7 @@
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>98</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84">
@@ -2389,7 +2386,7 @@
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>98</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85">
@@ -2412,7 +2409,7 @@
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>98</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86">
@@ -2435,7 +2432,7 @@
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>98</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87">
@@ -2458,7 +2455,7 @@
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>98</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88">
@@ -2481,7 +2478,7 @@
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>98</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89">
@@ -2504,7 +2501,7 @@
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>98</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90">
@@ -2527,7 +2524,7 @@
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>98</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91">
@@ -2550,7 +2547,7 @@
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>98</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92">
@@ -2573,7 +2570,7 @@
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>98</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93">
@@ -2596,7 +2593,7 @@
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>98</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94">
@@ -2619,7 +2616,7 @@
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>98</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95">
@@ -2642,7 +2639,7 @@
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>98</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96">
@@ -2665,24 +2662,24 @@
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>98</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B97" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B97" s="2" t="s">
+      <c r="C97" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D97" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C97" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D97" s="2" t="s">
+      <c r="E97" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2693,19 +2690,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2716,19 +2713,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2739,19 +2736,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2762,19 +2759,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2785,19 +2782,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2808,16 +2805,16 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>15</v>
@@ -2831,19 +2828,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2854,16 +2851,16 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>18</v>
@@ -2877,19 +2874,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B106" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E106" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2900,19 +2897,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B107" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E107" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -2923,19 +2920,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B108" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E108" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -2946,10 +2943,10 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
@@ -2958,7 +2955,7 @@
         <v>14</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_999.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="126">
   <si>
     <t>Sezione</t>
   </si>
@@ -210,6 +210,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -442,7 +448,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H109"/>
+  <dimension ref="A1:H112"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1224,7 +1230,7 @@
         <v>80</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>37</v>
@@ -1270,7 +1276,7 @@
         <v>84</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>37</v>
@@ -1379,19 +1385,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="C41" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D41" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1402,19 +1408,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1425,19 +1431,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1448,19 +1454,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1471,19 +1477,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1494,19 +1500,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1517,19 +1523,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1540,19 +1546,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1563,19 +1569,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1586,19 +1592,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1609,19 +1615,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1632,19 +1638,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1655,19 +1661,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1678,19 +1684,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1701,19 +1707,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1724,19 +1730,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1747,19 +1753,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1770,19 +1776,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1793,19 +1799,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1816,19 +1822,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1839,19 +1845,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1862,19 +1868,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1885,19 +1891,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1908,19 +1914,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1931,19 +1937,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1954,19 +1960,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -1977,19 +1983,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2000,19 +2006,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2026,22 +2032,22 @@
         <v>96</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>36</v>
+        <v>92</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>97</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="70">
@@ -2049,39 +2055,39 @@
         <v>96</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>97</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2092,19 +2098,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2115,19 +2121,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2138,19 +2144,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2161,19 +2167,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2184,19 +2190,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2207,19 +2213,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2230,19 +2236,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2253,19 +2259,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2276,19 +2282,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2299,19 +2305,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2322,19 +2328,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2345,19 +2351,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2368,19 +2374,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2391,19 +2397,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2414,19 +2420,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2437,19 +2443,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2460,19 +2466,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2483,19 +2489,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2506,19 +2512,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2529,19 +2535,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2552,19 +2558,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2575,19 +2581,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2598,19 +2604,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2621,19 +2627,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2644,19 +2650,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2670,22 +2676,22 @@
         <v>98</v>
       </c>
       <c r="B97" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D97" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C97" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="E97" s="2" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98">
@@ -2693,22 +2699,22 @@
         <v>98</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99">
@@ -2716,39 +2722,39 @@
         <v>98</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2759,19 +2765,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2782,19 +2788,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2805,19 +2811,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>15</v>
+        <v>109</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2828,19 +2834,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2851,19 +2857,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2874,19 +2880,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>117</v>
+        <v>15</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2897,19 +2903,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -2920,19 +2926,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>121</v>
+        <v>18</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -2943,24 +2949,93 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B111" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B109" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C109" s="2" t="s">
+      <c r="C111" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D109" s="2" t="s">
+      <c r="D112" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E109" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F109" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G109" s="2" t="s">
+      <c r="E112" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G112" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_999.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="128">
   <si>
     <t>Sezione</t>
   </si>
@@ -210,6 +210,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Comprensione</t>
+  </si>
+  <si>
+    <t>tipoImpedimento</t>
   </si>
   <si>
     <t>Residenza non nota</t>
@@ -448,7 +454,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H112"/>
+  <dimension ref="A1:H115"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1253,7 +1259,7 @@
         <v>82</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>37</v>
@@ -1299,7 +1305,7 @@
         <v>86</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>37</v>
@@ -1408,19 +1414,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="C42" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D42" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1431,19 +1437,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1454,19 +1460,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1477,19 +1483,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1500,19 +1506,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1523,19 +1529,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1546,19 +1552,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1569,19 +1575,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1592,19 +1598,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1615,19 +1621,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1638,19 +1644,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1661,19 +1667,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1684,19 +1690,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1707,19 +1713,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1730,19 +1736,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1753,19 +1759,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1776,19 +1782,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1799,19 +1805,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1822,19 +1828,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1845,19 +1851,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1868,19 +1874,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1891,19 +1897,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1914,19 +1920,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1937,19 +1943,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1960,19 +1966,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -1983,19 +1989,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2006,19 +2012,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2029,19 +2035,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2052,19 +2058,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2078,22 +2084,22 @@
         <v>98</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>36</v>
+        <v>94</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="72">
@@ -2101,39 +2107,39 @@
         <v>98</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>41</v>
+        <v>97</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2144,19 +2150,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2167,19 +2173,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2190,19 +2196,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2213,19 +2219,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2236,19 +2242,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2259,19 +2265,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2282,19 +2288,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2305,19 +2311,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2328,19 +2334,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2351,19 +2357,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2374,19 +2380,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2397,19 +2403,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2420,19 +2426,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2443,19 +2449,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2466,19 +2472,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2489,19 +2495,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2512,19 +2518,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2535,19 +2541,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2558,19 +2564,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2581,19 +2587,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2604,19 +2610,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2627,19 +2633,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2650,19 +2656,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2673,19 +2679,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2696,19 +2702,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2719,19 +2725,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2745,22 +2751,22 @@
         <v>100</v>
       </c>
       <c r="B100" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D100" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C100" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="E100" s="2" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101">
@@ -2768,22 +2774,22 @@
         <v>100</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102">
@@ -2791,39 +2797,39 @@
         <v>100</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2834,19 +2840,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2857,19 +2863,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2880,19 +2886,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2903,19 +2909,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -2926,19 +2932,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>18</v>
+        <v>115</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -2949,19 +2955,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>119</v>
+        <v>15</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -2972,19 +2978,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -2995,19 +3001,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>123</v>
+        <v>18</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3018,24 +3024,93 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B114" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B112" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C112" s="2" t="s">
+      <c r="C114" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D112" s="2" t="s">
+      <c r="D115" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E112" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="F112" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G112" s="2" t="s">
+      <c r="E115" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G115" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_999.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="130">
   <si>
     <t>Sezione</t>
   </si>
@@ -384,6 +384,12 @@
   </si>
   <si>
     <t>serie</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>volume</t>
   </si>
   <si>
     <t>Tipo registro</t>
@@ -454,7 +460,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H115"/>
+  <dimension ref="A1:H116"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -3093,16 +3099,16 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>126</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>14</v>
+        <v>104</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>127</v>
@@ -3111,6 +3117,29 @@
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G116" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_999.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="134">
   <si>
     <t>Sezione</t>
   </si>
@@ -119,6 +119,12 @@
     <t>descrizioneMotivoRecupero</t>
   </si>
   <si>
+    <t>Identificativo Atto Cartaceo</t>
+  </si>
+  <si>
+    <t>idAttoCartaceo</t>
+  </si>
+  <si>
     <t>Madre</t>
   </si>
   <si>
@@ -318,6 +324,12 @@
   </si>
   <si>
     <t>evento.intestatari[0]</t>
+  </si>
+  <si>
+    <t>Residenza al momento dell'evento originario</t>
+  </si>
+  <si>
+    <t>residenzaOriginaria</t>
   </si>
   <si>
     <t>Atto collegato</t>
@@ -460,14 +472,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H116"/>
+  <dimension ref="A1:H118"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="19.171875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="33.30859375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="40.984375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="22.48828125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="26.12109375" customWidth="true" bestFit="true"/>
@@ -753,62 +765,62 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>43</v>
@@ -817,12 +829,12 @@
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>44</v>
@@ -831,7 +843,7 @@
         <v>25</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>45</v>
@@ -840,12 +852,12 @@
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>46</v>
@@ -854,7 +866,7 @@
         <v>25</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>47</v>
@@ -863,12 +875,12 @@
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>48</v>
@@ -877,7 +889,7 @@
         <v>25</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>49</v>
@@ -886,12 +898,12 @@
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>50</v>
@@ -900,7 +912,7 @@
         <v>25</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>51</v>
@@ -909,12 +921,12 @@
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>52</v>
@@ -923,7 +935,7 @@
         <v>25</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>53</v>
@@ -932,12 +944,12 @@
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>54</v>
@@ -946,7 +958,7 @@
         <v>25</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>55</v>
@@ -955,12 +967,12 @@
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>56</v>
@@ -969,7 +981,7 @@
         <v>25</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>57</v>
@@ -978,12 +990,12 @@
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>58</v>
@@ -992,7 +1004,7 @@
         <v>25</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>59</v>
@@ -1001,12 +1013,12 @@
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>60</v>
@@ -1015,7 +1027,7 @@
         <v>25</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>61</v>
@@ -1024,12 +1036,12 @@
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>62</v>
@@ -1038,7 +1050,7 @@
         <v>25</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>63</v>
@@ -1047,12 +1059,12 @@
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>64</v>
@@ -1061,7 +1073,7 @@
         <v>25</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>65</v>
@@ -1070,12 +1082,12 @@
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>66</v>
@@ -1084,7 +1096,7 @@
         <v>25</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>67</v>
@@ -1093,12 +1105,12 @@
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>68</v>
@@ -1107,7 +1119,7 @@
         <v>25</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>69</v>
@@ -1116,12 +1128,12 @@
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>70</v>
@@ -1130,7 +1142,7 @@
         <v>25</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>71</v>
@@ -1139,12 +1151,12 @@
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>72</v>
@@ -1153,7 +1165,7 @@
         <v>25</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>73</v>
@@ -1162,12 +1174,12 @@
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>74</v>
@@ -1176,7 +1188,7 @@
         <v>25</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>75</v>
@@ -1185,12 +1197,12 @@
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>76</v>
@@ -1199,7 +1211,7 @@
         <v>25</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>77</v>
@@ -1208,12 +1220,12 @@
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>78</v>
@@ -1222,7 +1234,7 @@
         <v>25</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>79</v>
@@ -1231,12 +1243,12 @@
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>80</v>
@@ -1245,7 +1257,7 @@
         <v>25</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>81</v>
@@ -1254,12 +1266,12 @@
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>82</v>
@@ -1268,7 +1280,7 @@
         <v>25</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>83</v>
@@ -1277,21 +1289,21 @@
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>85</v>
@@ -1300,12 +1312,12 @@
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>86</v>
@@ -1314,7 +1326,7 @@
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>87</v>
@@ -1323,21 +1335,21 @@
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>89</v>
@@ -1346,12 +1358,12 @@
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>90</v>
@@ -1360,7 +1372,7 @@
         <v>25</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>91</v>
@@ -1369,12 +1381,12 @@
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>92</v>
@@ -1383,7 +1395,7 @@
         <v>25</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>93</v>
@@ -1392,12 +1404,12 @@
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>94</v>
@@ -1406,7 +1418,7 @@
         <v>25</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>95</v>
@@ -1415,12 +1427,12 @@
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>96</v>
@@ -1429,7 +1441,7 @@
         <v>25</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>97</v>
@@ -1438,67 +1450,67 @@
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="C43" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D43" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E43" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>43</v>
@@ -1507,12 +1519,12 @@
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>44</v>
@@ -1521,7 +1533,7 @@
         <v>25</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>45</v>
@@ -1530,12 +1542,12 @@
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>46</v>
@@ -1544,7 +1556,7 @@
         <v>25</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>47</v>
@@ -1553,12 +1565,12 @@
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>48</v>
@@ -1567,7 +1579,7 @@
         <v>25</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>49</v>
@@ -1576,12 +1588,12 @@
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>50</v>
@@ -1590,7 +1602,7 @@
         <v>25</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>51</v>
@@ -1599,12 +1611,12 @@
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>52</v>
@@ -1613,7 +1625,7 @@
         <v>25</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>53</v>
@@ -1622,12 +1634,12 @@
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>54</v>
@@ -1636,7 +1648,7 @@
         <v>25</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>55</v>
@@ -1645,12 +1657,12 @@
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>56</v>
@@ -1659,7 +1671,7 @@
         <v>25</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>57</v>
@@ -1668,12 +1680,12 @@
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>58</v>
@@ -1682,7 +1694,7 @@
         <v>25</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>59</v>
@@ -1691,12 +1703,12 @@
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>60</v>
@@ -1705,7 +1717,7 @@
         <v>25</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>61</v>
@@ -1714,12 +1726,12 @@
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>62</v>
@@ -1728,7 +1740,7 @@
         <v>25</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>63</v>
@@ -1737,12 +1749,12 @@
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>64</v>
@@ -1751,7 +1763,7 @@
         <v>25</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>65</v>
@@ -1760,12 +1772,12 @@
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>66</v>
@@ -1774,7 +1786,7 @@
         <v>25</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>67</v>
@@ -1783,12 +1795,12 @@
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>68</v>
@@ -1797,7 +1809,7 @@
         <v>25</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>69</v>
@@ -1806,12 +1818,12 @@
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>70</v>
@@ -1820,7 +1832,7 @@
         <v>25</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>71</v>
@@ -1829,12 +1841,12 @@
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>72</v>
@@ -1843,7 +1855,7 @@
         <v>25</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>73</v>
@@ -1852,12 +1864,12 @@
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>74</v>
@@ -1866,7 +1878,7 @@
         <v>25</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>75</v>
@@ -1875,12 +1887,12 @@
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>76</v>
@@ -1889,7 +1901,7 @@
         <v>25</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>77</v>
@@ -1898,12 +1910,12 @@
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>78</v>
@@ -1912,7 +1924,7 @@
         <v>25</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>79</v>
@@ -1921,12 +1933,12 @@
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>80</v>
@@ -1935,7 +1947,7 @@
         <v>25</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>81</v>
@@ -1944,12 +1956,12 @@
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>82</v>
@@ -1958,7 +1970,7 @@
         <v>25</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>83</v>
@@ -1967,21 +1979,21 @@
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>85</v>
@@ -1990,12 +2002,12 @@
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>86</v>
@@ -2004,7 +2016,7 @@
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>87</v>
@@ -2013,21 +2025,21 @@
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>89</v>
@@ -2036,12 +2048,12 @@
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>90</v>
@@ -2050,7 +2062,7 @@
         <v>25</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>91</v>
@@ -2059,12 +2071,12 @@
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>92</v>
@@ -2073,7 +2085,7 @@
         <v>25</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>93</v>
@@ -2082,12 +2094,12 @@
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>94</v>
@@ -2096,7 +2108,7 @@
         <v>25</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>95</v>
@@ -2105,12 +2117,12 @@
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>96</v>
@@ -2119,7 +2131,7 @@
         <v>25</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>97</v>
@@ -2128,7 +2140,7 @@
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="73">
@@ -2136,39 +2148,39 @@
         <v>100</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>36</v>
+        <v>98</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>101</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>38</v>
+        <v>99</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2179,16 +2191,16 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>43</v>
@@ -2202,16 +2214,16 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>45</v>
@@ -2225,7 +2237,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>46</v>
@@ -2234,7 +2246,7 @@
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>47</v>
@@ -2248,7 +2260,7 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>48</v>
@@ -2257,7 +2269,7 @@
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>49</v>
@@ -2271,7 +2283,7 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>50</v>
@@ -2280,7 +2292,7 @@
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>51</v>
@@ -2294,16 +2306,16 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>53</v>
@@ -2317,7 +2329,7 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>54</v>
@@ -2326,7 +2338,7 @@
         <v>25</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>55</v>
@@ -2340,7 +2352,7 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>56</v>
@@ -2349,7 +2361,7 @@
         <v>25</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>57</v>
@@ -2363,7 +2375,7 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>58</v>
@@ -2372,7 +2384,7 @@
         <v>25</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>59</v>
@@ -2386,7 +2398,7 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>60</v>
@@ -2395,7 +2407,7 @@
         <v>25</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>61</v>
@@ -2409,7 +2421,7 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>62</v>
@@ -2418,7 +2430,7 @@
         <v>25</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>63</v>
@@ -2432,7 +2444,7 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>64</v>
@@ -2441,7 +2453,7 @@
         <v>25</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>65</v>
@@ -2455,7 +2467,7 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>66</v>
@@ -2464,7 +2476,7 @@
         <v>25</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>67</v>
@@ -2478,7 +2490,7 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>68</v>
@@ -2487,7 +2499,7 @@
         <v>25</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>69</v>
@@ -2501,7 +2513,7 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>70</v>
@@ -2510,7 +2522,7 @@
         <v>25</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>71</v>
@@ -2524,7 +2536,7 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>72</v>
@@ -2533,7 +2545,7 @@
         <v>25</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>73</v>
@@ -2547,7 +2559,7 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>74</v>
@@ -2556,7 +2568,7 @@
         <v>25</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>75</v>
@@ -2570,7 +2582,7 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>76</v>
@@ -2579,7 +2591,7 @@
         <v>25</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>77</v>
@@ -2593,7 +2605,7 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>78</v>
@@ -2602,7 +2614,7 @@
         <v>25</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>79</v>
@@ -2616,7 +2628,7 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>80</v>
@@ -2625,7 +2637,7 @@
         <v>25</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>81</v>
@@ -2639,7 +2651,7 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>82</v>
@@ -2648,7 +2660,7 @@
         <v>25</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>83</v>
@@ -2662,16 +2674,16 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>85</v>
@@ -2685,16 +2697,16 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>86</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>87</v>
@@ -2708,7 +2720,7 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>88</v>
@@ -2717,7 +2729,7 @@
         <v>25</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>89</v>
@@ -2731,7 +2743,7 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>90</v>
@@ -2740,7 +2752,7 @@
         <v>25</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>91</v>
@@ -2754,7 +2766,7 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>92</v>
@@ -2763,7 +2775,7 @@
         <v>25</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>93</v>
@@ -2777,7 +2789,7 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>94</v>
@@ -2786,7 +2798,7 @@
         <v>25</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>95</v>
@@ -2800,7 +2812,7 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>96</v>
@@ -2809,7 +2821,7 @@
         <v>25</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>97</v>
@@ -2826,22 +2838,22 @@
         <v>102</v>
       </c>
       <c r="B103" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D103" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C103" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="E103" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104">
@@ -2849,36 +2861,36 @@
         <v>102</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B105" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D105" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>109</v>
@@ -2887,12 +2899,12 @@
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>110</v>
@@ -2901,7 +2913,7 @@
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>111</v>
@@ -2910,12 +2922,12 @@
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>112</v>
@@ -2924,7 +2936,7 @@
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>113</v>
@@ -2933,12 +2945,12 @@
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>114</v>
@@ -2947,7 +2959,7 @@
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>115</v>
@@ -2956,12 +2968,12 @@
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>116</v>
@@ -2970,113 +2982,113 @@
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>15</v>
+        <v>117</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>123</v>
+        <v>18</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>124</v>
@@ -3085,7 +3097,7 @@
         <v>25</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>125</v>
@@ -3094,12 +3106,12 @@
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>126</v>
@@ -3108,7 +3120,7 @@
         <v>25</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>127</v>
@@ -3117,21 +3129,21 @@
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>128</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>129</v>
@@ -3140,6 +3152,52 @@
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_999.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="130">
   <si>
     <t>Sezione</t>
   </si>
@@ -119,12 +119,6 @@
     <t>descrizioneMotivoRecupero</t>
   </si>
   <si>
-    <t>Identificativo Atto Cartaceo</t>
-  </si>
-  <si>
-    <t>idAttoCartaceo</t>
-  </si>
-  <si>
     <t>Madre</t>
   </si>
   <si>
@@ -324,12 +318,6 @@
   </si>
   <si>
     <t>evento.intestatari[0]</t>
-  </si>
-  <si>
-    <t>Residenza al momento dell'evento originario</t>
-  </si>
-  <si>
-    <t>residenzaOriginaria</t>
   </si>
   <si>
     <t>Atto collegato</t>
@@ -472,14 +460,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H118"/>
+  <dimension ref="A1:H116"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="19.171875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="40.984375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="33.30859375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="22.48828125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="26.12109375" customWidth="true" bestFit="true"/>
@@ -765,62 +753,62 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="E14" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>43</v>
@@ -829,12 +817,12 @@
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>44</v>
@@ -843,7 +831,7 @@
         <v>25</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>45</v>
@@ -852,12 +840,12 @@
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>46</v>
@@ -866,7 +854,7 @@
         <v>25</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>47</v>
@@ -875,12 +863,12 @@
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>48</v>
@@ -889,7 +877,7 @@
         <v>25</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>49</v>
@@ -898,12 +886,12 @@
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>50</v>
@@ -912,7 +900,7 @@
         <v>25</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>51</v>
@@ -921,12 +909,12 @@
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>52</v>
@@ -935,7 +923,7 @@
         <v>25</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>53</v>
@@ -944,12 +932,12 @@
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>54</v>
@@ -958,7 +946,7 @@
         <v>25</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>55</v>
@@ -967,12 +955,12 @@
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>56</v>
@@ -981,7 +969,7 @@
         <v>25</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>57</v>
@@ -990,12 +978,12 @@
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>58</v>
@@ -1004,7 +992,7 @@
         <v>25</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>59</v>
@@ -1013,12 +1001,12 @@
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>60</v>
@@ -1027,7 +1015,7 @@
         <v>25</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>61</v>
@@ -1036,12 +1024,12 @@
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>62</v>
@@ -1050,7 +1038,7 @@
         <v>25</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>63</v>
@@ -1059,12 +1047,12 @@
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>64</v>
@@ -1073,7 +1061,7 @@
         <v>25</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>65</v>
@@ -1082,12 +1070,12 @@
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>66</v>
@@ -1096,7 +1084,7 @@
         <v>25</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>67</v>
@@ -1105,12 +1093,12 @@
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>68</v>
@@ -1119,7 +1107,7 @@
         <v>25</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>69</v>
@@ -1128,12 +1116,12 @@
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>70</v>
@@ -1142,7 +1130,7 @@
         <v>25</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>71</v>
@@ -1151,12 +1139,12 @@
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>72</v>
@@ -1165,7 +1153,7 @@
         <v>25</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>73</v>
@@ -1174,12 +1162,12 @@
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>74</v>
@@ -1188,7 +1176,7 @@
         <v>25</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>75</v>
@@ -1197,12 +1185,12 @@
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>76</v>
@@ -1211,7 +1199,7 @@
         <v>25</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>77</v>
@@ -1220,12 +1208,12 @@
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>78</v>
@@ -1234,7 +1222,7 @@
         <v>25</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>79</v>
@@ -1243,12 +1231,12 @@
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>80</v>
@@ -1257,7 +1245,7 @@
         <v>25</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>81</v>
@@ -1266,12 +1254,12 @@
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>82</v>
@@ -1280,7 +1268,7 @@
         <v>25</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>83</v>
@@ -1289,21 +1277,21 @@
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>85</v>
@@ -1312,12 +1300,12 @@
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>86</v>
@@ -1326,7 +1314,7 @@
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>87</v>
@@ -1335,21 +1323,21 @@
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>89</v>
@@ -1358,12 +1346,12 @@
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>90</v>
@@ -1372,7 +1360,7 @@
         <v>25</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>91</v>
@@ -1381,12 +1369,12 @@
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>92</v>
@@ -1395,7 +1383,7 @@
         <v>25</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>93</v>
@@ -1404,12 +1392,12 @@
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>94</v>
@@ -1418,7 +1406,7 @@
         <v>25</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>95</v>
@@ -1427,12 +1415,12 @@
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>96</v>
@@ -1441,7 +1429,7 @@
         <v>25</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>97</v>
@@ -1450,67 +1438,67 @@
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>98</v>
+        <v>36</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>99</v>
+        <v>38</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>43</v>
@@ -1519,12 +1507,12 @@
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>44</v>
@@ -1533,7 +1521,7 @@
         <v>25</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>45</v>
@@ -1542,12 +1530,12 @@
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>46</v>
@@ -1556,7 +1544,7 @@
         <v>25</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>47</v>
@@ -1565,12 +1553,12 @@
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>48</v>
@@ -1579,7 +1567,7 @@
         <v>25</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>49</v>
@@ -1588,12 +1576,12 @@
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>50</v>
@@ -1602,7 +1590,7 @@
         <v>25</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>51</v>
@@ -1611,12 +1599,12 @@
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>52</v>
@@ -1625,7 +1613,7 @@
         <v>25</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>53</v>
@@ -1634,12 +1622,12 @@
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>54</v>
@@ -1648,7 +1636,7 @@
         <v>25</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>55</v>
@@ -1657,12 +1645,12 @@
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>56</v>
@@ -1671,7 +1659,7 @@
         <v>25</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>57</v>
@@ -1680,12 +1668,12 @@
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>58</v>
@@ -1694,7 +1682,7 @@
         <v>25</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>59</v>
@@ -1703,12 +1691,12 @@
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>60</v>
@@ -1717,7 +1705,7 @@
         <v>25</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>61</v>
@@ -1726,12 +1714,12 @@
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>62</v>
@@ -1740,7 +1728,7 @@
         <v>25</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>63</v>
@@ -1749,12 +1737,12 @@
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>64</v>
@@ -1763,7 +1751,7 @@
         <v>25</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>65</v>
@@ -1772,12 +1760,12 @@
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>66</v>
@@ -1786,7 +1774,7 @@
         <v>25</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>67</v>
@@ -1795,12 +1783,12 @@
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>68</v>
@@ -1809,7 +1797,7 @@
         <v>25</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>69</v>
@@ -1818,12 +1806,12 @@
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>70</v>
@@ -1832,7 +1820,7 @@
         <v>25</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>71</v>
@@ -1841,12 +1829,12 @@
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>72</v>
@@ -1855,7 +1843,7 @@
         <v>25</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>73</v>
@@ -1864,12 +1852,12 @@
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>74</v>
@@ -1878,7 +1866,7 @@
         <v>25</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>75</v>
@@ -1887,12 +1875,12 @@
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>76</v>
@@ -1901,7 +1889,7 @@
         <v>25</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>77</v>
@@ -1910,12 +1898,12 @@
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>78</v>
@@ -1924,7 +1912,7 @@
         <v>25</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>79</v>
@@ -1933,12 +1921,12 @@
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>80</v>
@@ -1947,7 +1935,7 @@
         <v>25</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>81</v>
@@ -1956,12 +1944,12 @@
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>82</v>
@@ -1970,7 +1958,7 @@
         <v>25</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>83</v>
@@ -1979,21 +1967,21 @@
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>85</v>
@@ -2002,12 +1990,12 @@
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>86</v>
@@ -2016,7 +2004,7 @@
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>87</v>
@@ -2025,21 +2013,21 @@
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>89</v>
@@ -2048,12 +2036,12 @@
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>90</v>
@@ -2062,7 +2050,7 @@
         <v>25</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>91</v>
@@ -2071,12 +2059,12 @@
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>92</v>
@@ -2085,7 +2073,7 @@
         <v>25</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>93</v>
@@ -2094,12 +2082,12 @@
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>94</v>
@@ -2108,7 +2096,7 @@
         <v>25</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>95</v>
@@ -2117,12 +2105,12 @@
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>96</v>
@@ -2131,7 +2119,7 @@
         <v>25</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>97</v>
@@ -2140,7 +2128,7 @@
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="73">
@@ -2148,39 +2136,39 @@
         <v>100</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>98</v>
+        <v>36</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>101</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>99</v>
+        <v>38</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2191,16 +2179,16 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>43</v>
@@ -2214,16 +2202,16 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>45</v>
@@ -2237,7 +2225,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>46</v>
@@ -2246,7 +2234,7 @@
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>47</v>
@@ -2260,7 +2248,7 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>48</v>
@@ -2269,7 +2257,7 @@
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>49</v>
@@ -2283,7 +2271,7 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>50</v>
@@ -2292,7 +2280,7 @@
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>51</v>
@@ -2306,16 +2294,16 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>53</v>
@@ -2329,7 +2317,7 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>54</v>
@@ -2338,7 +2326,7 @@
         <v>25</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>55</v>
@@ -2352,7 +2340,7 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>56</v>
@@ -2361,7 +2349,7 @@
         <v>25</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>57</v>
@@ -2375,7 +2363,7 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>58</v>
@@ -2384,7 +2372,7 @@
         <v>25</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>59</v>
@@ -2398,7 +2386,7 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>60</v>
@@ -2407,7 +2395,7 @@
         <v>25</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>61</v>
@@ -2421,7 +2409,7 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>62</v>
@@ -2430,7 +2418,7 @@
         <v>25</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>63</v>
@@ -2444,7 +2432,7 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>64</v>
@@ -2453,7 +2441,7 @@
         <v>25</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>65</v>
@@ -2467,7 +2455,7 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>66</v>
@@ -2476,7 +2464,7 @@
         <v>25</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>67</v>
@@ -2490,7 +2478,7 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>68</v>
@@ -2499,7 +2487,7 @@
         <v>25</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>69</v>
@@ -2513,7 +2501,7 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>70</v>
@@ -2522,7 +2510,7 @@
         <v>25</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>71</v>
@@ -2536,7 +2524,7 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>72</v>
@@ -2545,7 +2533,7 @@
         <v>25</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>73</v>
@@ -2559,7 +2547,7 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>74</v>
@@ -2568,7 +2556,7 @@
         <v>25</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>75</v>
@@ -2582,7 +2570,7 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>76</v>
@@ -2591,7 +2579,7 @@
         <v>25</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>77</v>
@@ -2605,7 +2593,7 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>78</v>
@@ -2614,7 +2602,7 @@
         <v>25</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>79</v>
@@ -2628,7 +2616,7 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>80</v>
@@ -2637,7 +2625,7 @@
         <v>25</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>81</v>
@@ -2651,7 +2639,7 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>82</v>
@@ -2660,7 +2648,7 @@
         <v>25</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>83</v>
@@ -2674,16 +2662,16 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>85</v>
@@ -2697,16 +2685,16 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>86</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>87</v>
@@ -2720,7 +2708,7 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>88</v>
@@ -2729,7 +2717,7 @@
         <v>25</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>89</v>
@@ -2743,7 +2731,7 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>90</v>
@@ -2752,7 +2740,7 @@
         <v>25</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>91</v>
@@ -2766,7 +2754,7 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>92</v>
@@ -2775,7 +2763,7 @@
         <v>25</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>93</v>
@@ -2789,7 +2777,7 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>94</v>
@@ -2798,7 +2786,7 @@
         <v>25</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>95</v>
@@ -2812,7 +2800,7 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>96</v>
@@ -2821,7 +2809,7 @@
         <v>25</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>97</v>
@@ -2838,22 +2826,22 @@
         <v>102</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="104">
@@ -2861,36 +2849,36 @@
         <v>102</v>
       </c>
       <c r="B104" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C104" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="E104" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>109</v>
@@ -2899,12 +2887,12 @@
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>110</v>
@@ -2913,7 +2901,7 @@
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>111</v>
@@ -2922,12 +2910,12 @@
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>112</v>
@@ -2936,7 +2924,7 @@
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>113</v>
@@ -2945,12 +2933,12 @@
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>114</v>
@@ -2959,7 +2947,7 @@
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>115</v>
@@ -2968,12 +2956,12 @@
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>116</v>
@@ -2982,113 +2970,113 @@
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>117</v>
+        <v>15</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B112" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E112" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C112" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B113" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E113" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C113" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>124</v>
@@ -3097,7 +3085,7 @@
         <v>25</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>125</v>
@@ -3106,12 +3094,12 @@
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>126</v>
@@ -3120,7 +3108,7 @@
         <v>25</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>127</v>
@@ -3129,21 +3117,21 @@
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>128</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>129</v>
@@ -3152,52 +3140,6 @@
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="F117" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G117" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F118" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G118" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_999.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="138">
   <si>
     <t>Sezione</t>
   </si>
@@ -156,6 +156,18 @@
   </si>
   <si>
     <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
   </si>
   <si>
     <t>Data nascita</t>
@@ -472,7 +484,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H118"/>
+  <dimension ref="A1:H124"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1323,7 +1335,7 @@
         <v>86</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>39</v>
@@ -1346,7 +1358,7 @@
         <v>88</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>39</v>
@@ -1369,7 +1381,7 @@
         <v>90</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>39</v>
@@ -1392,7 +1404,7 @@
         <v>92</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>39</v>
@@ -1478,19 +1490,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="C44" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D44" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1501,19 +1513,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>42</v>
+        <v>102</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>101</v>
+        <v>39</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>43</v>
+        <v>103</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1524,19 +1536,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1547,19 +1559,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1570,19 +1582,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1593,19 +1605,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1616,19 +1628,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1639,19 +1651,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1662,19 +1674,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1685,19 +1697,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1708,19 +1720,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1731,19 +1743,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1754,19 +1766,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1777,19 +1789,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1800,19 +1812,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1823,19 +1835,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1846,19 +1858,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1869,19 +1881,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1892,19 +1904,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1915,19 +1927,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1938,19 +1950,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1961,19 +1973,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1984,19 +1996,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2007,19 +2019,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2030,19 +2042,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2053,19 +2065,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2076,19 +2088,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2099,19 +2111,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2122,19 +2134,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2145,19 +2157,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2168,111 +2180,111 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>42</v>
+        <v>98</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B77" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D77" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E77" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E77" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2283,19 +2295,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2306,19 +2318,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2329,19 +2341,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2352,19 +2364,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2375,19 +2387,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2398,19 +2410,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2421,19 +2433,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2444,19 +2456,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2467,19 +2479,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2490,19 +2502,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2513,19 +2525,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2536,19 +2548,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2559,19 +2571,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2582,19 +2594,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2605,19 +2617,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2628,19 +2640,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2651,19 +2663,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2674,19 +2686,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2697,19 +2709,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2720,19 +2732,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2743,19 +2755,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2766,19 +2778,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2789,19 +2801,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2812,19 +2824,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2835,19 +2847,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2858,19 +2870,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2884,22 +2896,22 @@
         <v>106</v>
       </c>
       <c r="B105" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D105" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C105" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="E105" s="2" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106">
@@ -2907,22 +2919,22 @@
         <v>106</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107">
@@ -2930,22 +2942,22 @@
         <v>106</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108">
@@ -2953,22 +2965,22 @@
         <v>106</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109">
@@ -2976,22 +2988,22 @@
         <v>106</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110">
@@ -2999,39 +3011,39 @@
         <v>106</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3042,19 +3054,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3065,19 +3077,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>18</v>
+        <v>117</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3088,19 +3100,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3111,19 +3123,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3134,19 +3146,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3157,19 +3169,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>131</v>
+        <v>15</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3180,24 +3192,162 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D124" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E118" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F118" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G118" s="2" t="s">
+      <c r="E124" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G124" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_999.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="140">
   <si>
     <t>Sezione</t>
   </si>
@@ -35,6 +35,18 @@
     <t>Condizioni obbligatorieta'</t>
   </si>
   <si>
+    <t>Allegati</t>
+  </si>
+  <si>
+    <t>Allegato generico</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>Formula</t>
   </si>
   <si>
@@ -44,9 +56,6 @@
     <t>SI</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
@@ -87,9 +96,6 @@
   </si>
   <si>
     <t>Data decorrenza</t>
-  </si>
-  <si>
-    <t>NO</t>
   </si>
   <si>
     <t>dataDecorrenza</t>
@@ -484,7 +490,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H124"/>
+  <dimension ref="A1:H125"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -546,63 +552,63 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="G4" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>18</v>
@@ -611,90 +617,90 @@
         <v>10</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="F8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>28</v>
@@ -703,21 +709,21 @@
         <v>10</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>30</v>
@@ -726,21 +732,21 @@
         <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>32</v>
@@ -749,21 +755,21 @@
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>34</v>
@@ -772,21 +778,21 @@
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>36</v>
@@ -795,67 +801,67 @@
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>45</v>
@@ -864,21 +870,21 @@
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>47</v>
@@ -887,21 +893,21 @@
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>49</v>
@@ -910,21 +916,21 @@
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>51</v>
@@ -933,21 +939,21 @@
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>53</v>
@@ -956,21 +962,21 @@
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>55</v>
@@ -979,21 +985,21 @@
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>57</v>
@@ -1002,21 +1008,21 @@
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>59</v>
@@ -1025,21 +1031,21 @@
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>61</v>
@@ -1048,21 +1054,21 @@
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>63</v>
@@ -1071,21 +1077,21 @@
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>65</v>
@@ -1094,21 +1100,21 @@
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>67</v>
@@ -1117,21 +1123,21 @@
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>69</v>
@@ -1140,21 +1146,21 @@
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>71</v>
@@ -1163,21 +1169,21 @@
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>73</v>
@@ -1186,21 +1192,21 @@
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>75</v>
@@ -1209,21 +1215,21 @@
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>77</v>
@@ -1232,21 +1238,21 @@
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>79</v>
@@ -1255,21 +1261,21 @@
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>81</v>
@@ -1278,21 +1284,21 @@
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>83</v>
@@ -1301,21 +1307,21 @@
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>85</v>
@@ -1324,21 +1330,21 @@
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>86</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>87</v>
@@ -1347,21 +1353,21 @@
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>89</v>
@@ -1370,12 +1376,12 @@
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>90</v>
@@ -1384,7 +1390,7 @@
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>91</v>
@@ -1393,21 +1399,21 @@
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>92</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>93</v>
@@ -1416,21 +1422,21 @@
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>94</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>95</v>
@@ -1439,21 +1445,21 @@
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>96</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>97</v>
@@ -1462,21 +1468,21 @@
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>99</v>
@@ -1485,21 +1491,21 @@
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>100</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>101</v>
@@ -1508,21 +1514,21 @@
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>103</v>
@@ -1531,67 +1537,67 @@
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="C46" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E46" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>45</v>
@@ -1600,21 +1606,21 @@
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>47</v>
@@ -1623,21 +1629,21 @@
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>49</v>
@@ -1646,21 +1652,21 @@
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>51</v>
@@ -1669,21 +1675,21 @@
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>53</v>
@@ -1692,21 +1698,21 @@
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>55</v>
@@ -1715,21 +1721,21 @@
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>57</v>
@@ -1738,21 +1744,21 @@
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>59</v>
@@ -1761,21 +1767,21 @@
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>61</v>
@@ -1784,21 +1790,21 @@
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>63</v>
@@ -1807,21 +1813,21 @@
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>65</v>
@@ -1830,21 +1836,21 @@
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>67</v>
@@ -1853,21 +1859,21 @@
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>69</v>
@@ -1876,21 +1882,21 @@
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>71</v>
@@ -1899,21 +1905,21 @@
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>73</v>
@@ -1922,21 +1928,21 @@
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>75</v>
@@ -1945,21 +1951,21 @@
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>77</v>
@@ -1968,21 +1974,21 @@
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>79</v>
@@ -1991,21 +1997,21 @@
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>81</v>
@@ -2014,21 +2020,21 @@
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>83</v>
@@ -2037,21 +2043,21 @@
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>85</v>
@@ -2060,21 +2066,21 @@
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>86</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>87</v>
@@ -2083,21 +2089,21 @@
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>89</v>
@@ -2106,12 +2112,12 @@
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>90</v>
@@ -2120,7 +2126,7 @@
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>91</v>
@@ -2129,21 +2135,21 @@
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>92</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>93</v>
@@ -2152,21 +2158,21 @@
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>94</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>95</v>
@@ -2175,21 +2181,21 @@
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>96</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>97</v>
@@ -2198,21 +2204,21 @@
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>99</v>
@@ -2221,21 +2227,21 @@
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>100</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>101</v>
@@ -2244,21 +2250,21 @@
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>103</v>
@@ -2267,7 +2273,7 @@
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="78">
@@ -2275,7 +2281,7 @@
         <v>106</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>38</v>
+        <v>104</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
@@ -2284,50 +2290,50 @@
         <v>107</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>40</v>
+        <v>105</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B79" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E79" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C79" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>45</v>
@@ -2336,12 +2342,12 @@
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>46</v>
@@ -2350,7 +2356,7 @@
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>47</v>
@@ -2359,21 +2365,21 @@
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>49</v>
@@ -2382,21 +2388,21 @@
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>51</v>
@@ -2405,12 +2411,12 @@
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>52</v>
@@ -2419,7 +2425,7 @@
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>53</v>
@@ -2428,21 +2434,21 @@
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>55</v>
@@ -2451,21 +2457,21 @@
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>57</v>
@@ -2474,21 +2480,21 @@
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>59</v>
@@ -2497,21 +2503,21 @@
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>61</v>
@@ -2520,21 +2526,21 @@
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>63</v>
@@ -2543,21 +2549,21 @@
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>65</v>
@@ -2566,21 +2572,21 @@
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>67</v>
@@ -2589,21 +2595,21 @@
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>69</v>
@@ -2612,21 +2618,21 @@
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>71</v>
@@ -2635,21 +2641,21 @@
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>73</v>
@@ -2658,21 +2664,21 @@
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>75</v>
@@ -2681,21 +2687,21 @@
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>77</v>
@@ -2704,21 +2710,21 @@
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>79</v>
@@ -2727,21 +2733,21 @@
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>81</v>
@@ -2750,21 +2756,21 @@
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>83</v>
@@ -2773,21 +2779,21 @@
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>85</v>
@@ -2796,21 +2802,21 @@
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>86</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>87</v>
@@ -2819,21 +2825,21 @@
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>89</v>
@@ -2842,12 +2848,12 @@
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>90</v>
@@ -2856,7 +2862,7 @@
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>91</v>
@@ -2865,21 +2871,21 @@
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>92</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>93</v>
@@ -2888,21 +2894,21 @@
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>94</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>95</v>
@@ -2911,21 +2917,21 @@
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>96</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>97</v>
@@ -2934,21 +2940,21 @@
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>99</v>
@@ -2957,21 +2963,21 @@
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>100</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>101</v>
@@ -2980,21 +2986,21 @@
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>103</v>
@@ -3003,67 +3009,67 @@
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B111" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B111" s="2" t="s">
+      <c r="C111" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E111" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C111" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B112" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>112</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>115</v>
@@ -3072,21 +3078,21 @@
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>116</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>117</v>
@@ -3095,21 +3101,21 @@
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>118</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>119</v>
@@ -3118,21 +3124,21 @@
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>120</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>121</v>
@@ -3141,21 +3147,21 @@
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>122</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>123</v>
@@ -3164,113 +3170,113 @@
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>124</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>15</v>
+        <v>125</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>126</v>
+        <v>18</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>127</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>18</v>
+        <v>128</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>129</v>
+        <v>21</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>130</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>131</v>
@@ -3279,21 +3285,21 @@
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>132</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>133</v>
@@ -3302,21 +3308,21 @@
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>134</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>135</v>
@@ -3325,12 +3331,12 @@
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>136</v>
@@ -3339,7 +3345,7 @@
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>14</v>
+        <v>114</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>137</v>
@@ -3348,7 +3354,30 @@
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>16</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_999.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="142">
   <si>
     <t>Sezione</t>
   </si>
@@ -129,6 +129,12 @@
   </si>
   <si>
     <t>idAttoCartaceo</t>
+  </si>
+  <si>
+    <t>Atto secretato</t>
+  </si>
+  <si>
+    <t>flagsecretato</t>
   </si>
   <si>
     <t>Madre</t>
@@ -490,7 +496,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H125"/>
+  <dimension ref="A1:H126"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -829,62 +835,62 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>47</v>
@@ -893,12 +899,12 @@
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>48</v>
@@ -907,7 +913,7 @@
         <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>49</v>
@@ -916,12 +922,12 @@
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>50</v>
@@ -930,7 +936,7 @@
         <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>51</v>
@@ -939,12 +945,12 @@
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>52</v>
@@ -953,7 +959,7 @@
         <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>53</v>
@@ -962,12 +968,12 @@
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>54</v>
@@ -976,7 +982,7 @@
         <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>55</v>
@@ -985,12 +991,12 @@
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>56</v>
@@ -999,7 +1005,7 @@
         <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>57</v>
@@ -1008,12 +1014,12 @@
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>58</v>
@@ -1022,7 +1028,7 @@
         <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>59</v>
@@ -1031,12 +1037,12 @@
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>60</v>
@@ -1045,7 +1051,7 @@
         <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>61</v>
@@ -1054,12 +1060,12 @@
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>62</v>
@@ -1068,7 +1074,7 @@
         <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>63</v>
@@ -1077,12 +1083,12 @@
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>64</v>
@@ -1091,7 +1097,7 @@
         <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>65</v>
@@ -1100,12 +1106,12 @@
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>66</v>
@@ -1114,7 +1120,7 @@
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>67</v>
@@ -1123,12 +1129,12 @@
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>68</v>
@@ -1137,7 +1143,7 @@
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>69</v>
@@ -1146,12 +1152,12 @@
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>70</v>
@@ -1160,7 +1166,7 @@
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>71</v>
@@ -1169,12 +1175,12 @@
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>72</v>
@@ -1183,7 +1189,7 @@
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>73</v>
@@ -1192,12 +1198,12 @@
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>74</v>
@@ -1206,7 +1212,7 @@
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>75</v>
@@ -1215,12 +1221,12 @@
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>76</v>
@@ -1229,7 +1235,7 @@
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>77</v>
@@ -1238,12 +1244,12 @@
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>78</v>
@@ -1252,7 +1258,7 @@
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>79</v>
@@ -1261,12 +1267,12 @@
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>80</v>
@@ -1275,7 +1281,7 @@
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>81</v>
@@ -1284,12 +1290,12 @@
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>82</v>
@@ -1298,7 +1304,7 @@
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>83</v>
@@ -1307,12 +1313,12 @@
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>84</v>
@@ -1321,7 +1327,7 @@
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>85</v>
@@ -1330,12 +1336,12 @@
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>86</v>
@@ -1344,7 +1350,7 @@
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>87</v>
@@ -1353,12 +1359,12 @@
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>88</v>
@@ -1367,7 +1373,7 @@
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>89</v>
@@ -1376,12 +1382,12 @@
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>90</v>
@@ -1390,7 +1396,7 @@
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>91</v>
@@ -1399,21 +1405,21 @@
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>92</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>93</v>
@@ -1422,12 +1428,12 @@
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>94</v>
@@ -1436,7 +1442,7 @@
         <v>13</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>95</v>
@@ -1445,21 +1451,21 @@
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>96</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>97</v>
@@ -1468,12 +1474,12 @@
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>98</v>
@@ -1482,7 +1488,7 @@
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>99</v>
@@ -1491,12 +1497,12 @@
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>100</v>
@@ -1505,7 +1511,7 @@
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>101</v>
@@ -1514,12 +1520,12 @@
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>102</v>
@@ -1528,7 +1534,7 @@
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>103</v>
@@ -1537,12 +1543,12 @@
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>104</v>
@@ -1551,7 +1557,7 @@
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>105</v>
@@ -1560,67 +1566,67 @@
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E47" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>47</v>
@@ -1629,12 +1635,12 @@
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>48</v>
@@ -1643,7 +1649,7 @@
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>49</v>
@@ -1652,12 +1658,12 @@
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>50</v>
@@ -1666,7 +1672,7 @@
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>51</v>
@@ -1675,12 +1681,12 @@
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>52</v>
@@ -1689,7 +1695,7 @@
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>53</v>
@@ -1698,12 +1704,12 @@
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>54</v>
@@ -1712,7 +1718,7 @@
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>55</v>
@@ -1721,12 +1727,12 @@
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>56</v>
@@ -1735,7 +1741,7 @@
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>57</v>
@@ -1744,12 +1750,12 @@
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>58</v>
@@ -1758,7 +1764,7 @@
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>59</v>
@@ -1767,12 +1773,12 @@
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>60</v>
@@ -1781,7 +1787,7 @@
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>61</v>
@@ -1790,12 +1796,12 @@
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>62</v>
@@ -1804,7 +1810,7 @@
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>63</v>
@@ -1813,12 +1819,12 @@
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>64</v>
@@ -1827,7 +1833,7 @@
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>65</v>
@@ -1836,12 +1842,12 @@
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>66</v>
@@ -1850,7 +1856,7 @@
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>67</v>
@@ -1859,12 +1865,12 @@
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>68</v>
@@ -1873,7 +1879,7 @@
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>69</v>
@@ -1882,12 +1888,12 @@
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>70</v>
@@ -1896,7 +1902,7 @@
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>71</v>
@@ -1905,12 +1911,12 @@
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>72</v>
@@ -1919,7 +1925,7 @@
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>73</v>
@@ -1928,12 +1934,12 @@
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>74</v>
@@ -1942,7 +1948,7 @@
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>75</v>
@@ -1951,12 +1957,12 @@
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>76</v>
@@ -1965,7 +1971,7 @@
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>77</v>
@@ -1974,12 +1980,12 @@
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>78</v>
@@ -1988,7 +1994,7 @@
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>79</v>
@@ -1997,12 +2003,12 @@
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>80</v>
@@ -2011,7 +2017,7 @@
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>81</v>
@@ -2020,12 +2026,12 @@
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>82</v>
@@ -2034,7 +2040,7 @@
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>83</v>
@@ -2043,12 +2049,12 @@
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>84</v>
@@ -2057,7 +2063,7 @@
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>85</v>
@@ -2066,12 +2072,12 @@
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>86</v>
@@ -2080,7 +2086,7 @@
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>87</v>
@@ -2089,12 +2095,12 @@
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>88</v>
@@ -2103,7 +2109,7 @@
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>89</v>
@@ -2112,12 +2118,12 @@
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>90</v>
@@ -2126,7 +2132,7 @@
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>91</v>
@@ -2135,21 +2141,21 @@
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>92</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>93</v>
@@ -2158,12 +2164,12 @@
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>94</v>
@@ -2172,7 +2178,7 @@
         <v>13</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>95</v>
@@ -2181,21 +2187,21 @@
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>96</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>97</v>
@@ -2204,12 +2210,12 @@
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>98</v>
@@ -2218,7 +2224,7 @@
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>99</v>
@@ -2227,12 +2233,12 @@
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>100</v>
@@ -2241,7 +2247,7 @@
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>101</v>
@@ -2250,12 +2256,12 @@
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>102</v>
@@ -2264,7 +2270,7 @@
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>103</v>
@@ -2273,12 +2279,12 @@
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>104</v>
@@ -2287,7 +2293,7 @@
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>105</v>
@@ -2296,7 +2302,7 @@
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="79">
@@ -2304,39 +2310,39 @@
         <v>108</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>40</v>
+        <v>106</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>109</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>42</v>
+        <v>107</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2347,16 +2353,16 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>47</v>
@@ -2370,16 +2376,16 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>49</v>
@@ -2393,16 +2399,16 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>51</v>
@@ -2416,7 +2422,7 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>52</v>
@@ -2425,7 +2431,7 @@
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>53</v>
@@ -2439,16 +2445,16 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>55</v>
@@ -2462,7 +2468,7 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>56</v>
@@ -2471,7 +2477,7 @@
         <v>13</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>57</v>
@@ -2485,7 +2491,7 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>58</v>
@@ -2494,7 +2500,7 @@
         <v>13</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>59</v>
@@ -2508,16 +2514,16 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>61</v>
@@ -2531,7 +2537,7 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>62</v>
@@ -2540,7 +2546,7 @@
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>63</v>
@@ -2554,7 +2560,7 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>64</v>
@@ -2563,7 +2569,7 @@
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>65</v>
@@ -2577,7 +2583,7 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>66</v>
@@ -2586,7 +2592,7 @@
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>67</v>
@@ -2600,7 +2606,7 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>68</v>
@@ -2609,7 +2615,7 @@
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>69</v>
@@ -2623,7 +2629,7 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>70</v>
@@ -2632,7 +2638,7 @@
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>71</v>
@@ -2646,7 +2652,7 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>72</v>
@@ -2655,7 +2661,7 @@
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>73</v>
@@ -2669,7 +2675,7 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>74</v>
@@ -2678,7 +2684,7 @@
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>75</v>
@@ -2692,7 +2698,7 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>76</v>
@@ -2701,7 +2707,7 @@
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>77</v>
@@ -2715,7 +2721,7 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>78</v>
@@ -2724,7 +2730,7 @@
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>79</v>
@@ -2738,7 +2744,7 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>80</v>
@@ -2747,7 +2753,7 @@
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>81</v>
@@ -2761,7 +2767,7 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>82</v>
@@ -2770,7 +2776,7 @@
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>83</v>
@@ -2784,7 +2790,7 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>84</v>
@@ -2793,7 +2799,7 @@
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>85</v>
@@ -2807,7 +2813,7 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>86</v>
@@ -2816,7 +2822,7 @@
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>87</v>
@@ -2830,7 +2836,7 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>88</v>
@@ -2839,7 +2845,7 @@
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>89</v>
@@ -2853,7 +2859,7 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>90</v>
@@ -2862,7 +2868,7 @@
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>91</v>
@@ -2876,16 +2882,16 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>92</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>93</v>
@@ -2899,16 +2905,16 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>94</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>95</v>
@@ -2922,7 +2928,7 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>96</v>
@@ -2931,7 +2937,7 @@
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>97</v>
@@ -2945,7 +2951,7 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>98</v>
@@ -2954,7 +2960,7 @@
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>99</v>
@@ -2968,7 +2974,7 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>100</v>
@@ -2977,7 +2983,7 @@
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>101</v>
@@ -2991,7 +2997,7 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>102</v>
@@ -3000,7 +3006,7 @@
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>103</v>
@@ -3014,7 +3020,7 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>104</v>
@@ -3023,7 +3029,7 @@
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>105</v>
@@ -3037,19 +3043,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3060,39 +3066,39 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B112" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B112" s="2" t="s">
+      <c r="C112" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E112" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C112" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B113" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D113" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>114</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>117</v>
@@ -3101,12 +3107,12 @@
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>118</v>
@@ -3115,7 +3121,7 @@
         <v>13</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>119</v>
@@ -3124,12 +3130,12 @@
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>120</v>
@@ -3138,7 +3144,7 @@
         <v>13</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>121</v>
@@ -3147,12 +3153,12 @@
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>122</v>
@@ -3161,7 +3167,7 @@
         <v>13</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>123</v>
@@ -3170,12 +3176,12 @@
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>124</v>
@@ -3184,7 +3190,7 @@
         <v>13</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>125</v>
@@ -3193,12 +3199,12 @@
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>126</v>
@@ -3207,90 +3213,90 @@
         <v>13</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>18</v>
+        <v>127</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>128</v>
+        <v>18</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>129</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>21</v>
+        <v>130</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>131</v>
+        <v>21</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>132</v>
@@ -3299,7 +3305,7 @@
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>133</v>
@@ -3308,12 +3314,12 @@
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>134</v>
@@ -3322,7 +3328,7 @@
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>135</v>
@@ -3331,12 +3337,12 @@
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>136</v>
@@ -3345,7 +3351,7 @@
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>137</v>
@@ -3354,21 +3360,21 @@
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>138</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>17</v>
+        <v>116</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>139</v>
@@ -3377,6 +3383,29 @@
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G126" s="2" t="s">
         <v>19</v>
       </c>
     </row>
